--- a/src/test/resources/Registration (1).xlsx
+++ b/src/test/resources/Registration (1).xlsx
@@ -1,13 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BA141F0B-CC32-4BBD-AD55-1A826EDC6DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="DsalgoRegistration" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="pythonCode" sheetId="2" r:id="rId5"/>
+    <sheet name="DsalgoRegistration" sheetId="1" r:id="rId1"/>
+    <sheet name="pythonCode" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:A13"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="EtCkI7veSjd8xyGA1meF/qbOwVoJNm+1VkhWI1ll20o="/>
@@ -155,43 +160,47 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Courier New&quot;"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF004085"/>
       <name val="-apple-system"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -201,7 +210,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -217,63 +226,62 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -463,27 +471,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.71"/>
-    <col customWidth="1" min="2" max="2" width="19.29"/>
-    <col customWidth="1" min="3" max="3" width="28.14"/>
-    <col customWidth="1" min="4" max="4" width="58.0"/>
-    <col customWidth="1" min="5" max="6" width="8.71"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="28.08984375" customWidth="1"/>
+    <col min="4" max="4" width="58" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="14.5">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -511,7 +519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="14.5">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -523,32 +531,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:4" ht="14.5">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:4" ht="14.5">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:4" ht="15.5">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -557,21 +565,21 @@
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:4" ht="14.5">
+      <c r="A7" s="5"/>
     </row>
-    <row r="8">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:4" ht="14.5">
+      <c r="A8" s="5"/>
     </row>
-    <row r="9">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:4" ht="14.5">
+      <c r="A9" s="5"/>
     </row>
-    <row r="10">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:4" ht="14.5">
+      <c r="A10" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -1554,30 +1562,28 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="101.0"/>
-    <col customWidth="1" min="2" max="2" width="48.57"/>
-    <col customWidth="1" min="3" max="3" width="34.14"/>
+    <col min="1" max="1" width="101" customWidth="1"/>
+    <col min="2" max="2" width="48.54296875" customWidth="1"/>
+    <col min="3" max="3" width="34.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1585,7 +1591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="14.5">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1593,7 +1599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="14.5">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1601,70 +1607,70 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:3" ht="14.5">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:3" ht="14.5">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:3" ht="14.5">
+      <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="35.25" customHeight="1">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:3" ht="35.25" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:3" ht="14.5">
+      <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:3" ht="14.5">
+      <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:3" ht="14.5">
+      <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:3" ht="14.5">
+      <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2649,9 +2655,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>